--- a/results/mp/logistic/corona/confidence/210/desired-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/desired-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,27 +40,33 @@
     <t>name</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
     <t>drop</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t>no</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -85,91 +94,91 @@
     <t>special</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>support</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>share</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>helping</t>
-  </si>
-  <si>
     <t>increase</t>
+  </si>
+  <si>
+    <t>you</t>
   </si>
   <si>
     <t>.</t>
@@ -538,10 +547,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -599,13 +608,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8947368421052632</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -617,10 +626,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -649,13 +658,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8648648648648649</v>
+        <v>0.8493150684931506</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>248</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>248</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -667,31 +676,31 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>44</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4">
+        <v>0.9583333333333334</v>
+      </c>
+      <c r="L4">
+        <v>115</v>
+      </c>
+      <c r="M4">
+        <v>115</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>5</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4">
-        <v>0.95</v>
-      </c>
-      <c r="L4">
-        <v>114</v>
-      </c>
-      <c r="M4">
-        <v>114</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -699,13 +708,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8356164383561644</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C5">
-        <v>244</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>244</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -717,10 +726,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K5">
         <v>0.9491525423728814</v>
@@ -749,7 +758,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8235294117647058</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="C6">
         <v>28</v>
@@ -767,10 +776,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K6">
         <v>0.9166666666666666</v>
@@ -799,37 +808,37 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7222222222222222</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C7">
+        <v>27</v>
+      </c>
+      <c r="D7">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>11</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D7">
-        <v>26</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>10</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="K7">
-        <v>0.9138381201044387</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L7">
-        <v>350</v>
+        <v>30</v>
       </c>
       <c r="M7">
-        <v>350</v>
+        <v>30</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -841,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>33</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -849,13 +858,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5502645502645502</v>
+        <v>0.5767195767195767</v>
       </c>
       <c r="C8">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D8">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -867,19 +876,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K8">
-        <v>0.9090909090909091</v>
+        <v>0.9057591623036649</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>346</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>347</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -888,10 +897,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -920,16 +929,16 @@
         <v>237</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K9">
-        <v>0.8928571428571429</v>
+        <v>0.9014084507042254</v>
       </c>
       <c r="L9">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="M9">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -941,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -949,13 +958,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5254237288135594</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C10">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -967,19 +976,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K10">
-        <v>0.8773584905660378</v>
+        <v>0.8837209302325582</v>
       </c>
       <c r="L10">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="M10">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -991,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -999,13 +1008,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3087248322147651</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="C11">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D11">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1017,19 +1026,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K11">
-        <v>0.8671875</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L11">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="M11">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1041,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1049,13 +1058,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.1944444444444444</v>
+        <v>0.4576271186440678</v>
       </c>
       <c r="C12">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="D12">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1067,97 +1076,169 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>290</v>
+        <v>32</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K12">
+        <v>0.8679245283018868</v>
+      </c>
+      <c r="L12">
+        <v>92</v>
+      </c>
+      <c r="M12">
+        <v>92</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>0.3154362416107382</v>
+      </c>
+      <c r="C13">
+        <v>47</v>
+      </c>
+      <c r="D13">
+        <v>47</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>102</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13">
+        <v>0.8660714285714286</v>
+      </c>
+      <c r="L13">
+        <v>97</v>
+      </c>
+      <c r="M13">
+        <v>97</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="C14">
+        <v>95</v>
+      </c>
+      <c r="D14">
+        <v>95</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>265</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14">
+        <v>0.8625</v>
+      </c>
+      <c r="L14">
+        <v>138</v>
+      </c>
+      <c r="M14">
+        <v>138</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>0.1349206349206349</v>
+      </c>
+      <c r="C15">
+        <v>34</v>
+      </c>
+      <c r="D15">
+        <v>34</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>218</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15">
         <v>0.8620689655172413</v>
       </c>
-      <c r="L12">
+      <c r="L15">
         <v>50</v>
       </c>
-      <c r="M12">
+      <c r="M15">
         <v>50</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="J13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K13">
-        <v>0.85625</v>
-      </c>
-      <c r="L13">
-        <v>137</v>
-      </c>
-      <c r="M13">
-        <v>137</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="J14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K14">
-        <v>0.852112676056338</v>
-      </c>
-      <c r="L14">
-        <v>121</v>
-      </c>
-      <c r="M14">
-        <v>121</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="J15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K15">
-        <v>0.8297872340425532</v>
-      </c>
-      <c r="L15">
-        <v>39</v>
-      </c>
-      <c r="M15">
-        <v>39</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1174,16 +1255,16 @@
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K16">
-        <v>0.825</v>
+        <v>0.8515625</v>
       </c>
       <c r="L16">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="M16">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1195,21 +1276,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K17">
-        <v>0.8170731707317073</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L17">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M17">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1221,21 +1302,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K18">
-        <v>0.813953488372093</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L18">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M18">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1247,21 +1328,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K19">
-        <v>0.8095238095238095</v>
+        <v>0.8</v>
       </c>
       <c r="L19">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="M19">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1273,21 +1354,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K20">
-        <v>0.8055555555555556</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L20">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M20">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1299,21 +1380,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K21">
-        <v>0.7916666666666666</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L21">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="M21">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1325,21 +1406,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K22">
-        <v>0.7714285714285715</v>
+        <v>0.7441176470588236</v>
       </c>
       <c r="L22">
-        <v>27</v>
+        <v>253</v>
       </c>
       <c r="M22">
-        <v>27</v>
+        <v>253</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1351,21 +1432,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K23">
-        <v>0.7692307692307693</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="L23">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M23">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1382,16 +1463,16 @@
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K24">
-        <v>0.74</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L24">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M24">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1408,16 +1489,16 @@
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K25">
-        <v>0.7323529411764705</v>
+        <v>0.7244897959183674</v>
       </c>
       <c r="L25">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="M25">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1426,24 +1507,24 @@
         <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K26">
-        <v>0.7280334728033473</v>
+        <v>0.7154811715481172</v>
       </c>
       <c r="L26">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M26">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1455,21 +1536,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K27">
-        <v>0.7254237288135593</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="L27">
-        <v>214</v>
+        <v>65</v>
       </c>
       <c r="M27">
-        <v>214</v>
+        <v>65</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1481,21 +1562,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>81</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K28">
-        <v>0.7127659574468085</v>
+        <v>0.675</v>
       </c>
       <c r="L28">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="M28">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1507,21 +1588,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K29">
-        <v>0.6966292134831461</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="L29">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="M29">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1533,21 +1614,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K30">
-        <v>0.6615384615384615</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L30">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="M30">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1559,21 +1640,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K31">
-        <v>0.6078431372549019</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L31">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="M31">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1585,21 +1666,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K32">
-        <v>0.5857142857142857</v>
+        <v>0.6067415730337079</v>
       </c>
       <c r="L32">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="M32">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1611,21 +1692,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K33">
-        <v>0.547945205479452</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="L33">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M33">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1637,85 +1718,85 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K34">
-        <v>0.5172413793103449</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L34">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M34">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="N34">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K35">
-        <v>0.4487179487179487</v>
+        <v>0.02337228714524207</v>
       </c>
       <c r="L35">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="M35">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>43</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K36">
-        <v>0.006018054162487462</v>
+        <v>0.005226130653266331</v>
       </c>
       <c r="L36">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M36">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="N36">
-        <v>0.73</v>
+        <v>0.55</v>
       </c>
       <c r="O36">
-        <v>0.27</v>
+        <v>0.45</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>4955</v>
+        <v>4949</v>
       </c>
     </row>
   </sheetData>
